--- a/Bases_de_Dados_(2006-2021)/Uruguay Primera División_2021.xlsx
+++ b/Bases_de_Dados_(2006-2021)/Uruguay Primera División_2021.xlsx
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -7780,7 +7780,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -16282,7 +16282,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -18031,7 +18031,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -19552,7 +19552,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -20647,7 +20647,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -22386,7 +22386,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -24353,7 +24353,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -25656,7 +25656,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -28272,7 +28272,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -29580,7 +29580,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -30893,7 +30893,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -33068,7 +33068,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -35035,7 +35035,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="I159" t="n">
@@ -36120,7 +36120,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -37651,7 +37651,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="I171" t="n">
@@ -39608,7 +39608,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -41139,7 +41139,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="I187" t="n">
@@ -43096,7 +43096,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -45063,7 +45063,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="I205" t="n">
@@ -46148,7 +46148,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -48115,7 +48115,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="I219" t="n">
@@ -50290,7 +50290,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -52911,7 +52911,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="I241" t="n">
